--- a/Data/EC/NIT-9000402990.xlsx
+++ b/Data/EC/NIT-9000402990.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B606AAF2-0146-4C33-A3A3-A059B1C26CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38ACB725-7F69-4F61-86F6-9825001CC28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B2697315-4AF3-4860-95A6-452BA0142334}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C82E3748-6E99-42D0-B898-C81F2F28E05A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="152">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,385 +71,394 @@
     <t>SILDULFO DEL TORO BELLO</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1033742729</t>
+  </si>
+  <si>
+    <t>WENDY LIZETH GUTIERREZ PARRA</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1143354601</t>
+  </si>
+  <si>
+    <t>ANDRES CAMILO CABRERA ROMERO</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>98628785</t>
+  </si>
+  <si>
+    <t>WILSON DE JESUS MOLINA ESCOBAR</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>1238339665</t>
+  </si>
+  <si>
+    <t>MARLO PORTO VARGAS</t>
+  </si>
+  <si>
+    <t>1001904116</t>
+  </si>
+  <si>
+    <t>MAURICIO VENAVIDES BLANQUICETT</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>1047488552</t>
+  </si>
+  <si>
+    <t>DUVAN DE JESUS OJEDA BELTRAN</t>
+  </si>
+  <si>
+    <t>1143386685</t>
+  </si>
+  <si>
+    <t>HERNAN LUIS DIAZ BELEÑO</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>1047436676</t>
+  </si>
+  <si>
+    <t>YESENIA ACEVEDO GARCIA</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>1193577996</t>
+  </si>
+  <si>
+    <t>YULIETH ANDREA HERAZO HERRERA</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1033742729</t>
-  </si>
-  <si>
-    <t>WENDY LIZETH GUTIERREZ PARRA</t>
-  </si>
-  <si>
-    <t>1047436676</t>
-  </si>
-  <si>
-    <t>YESENIA ACEVEDO GARCIA</t>
-  </si>
-  <si>
-    <t>1047488552</t>
-  </si>
-  <si>
-    <t>DUVAN DE JESUS OJEDA BELTRAN</t>
-  </si>
-  <si>
-    <t>1238339665</t>
-  </si>
-  <si>
-    <t>MARLO PORTO VARGAS</t>
-  </si>
-  <si>
-    <t>1143354601</t>
-  </si>
-  <si>
-    <t>ANDRES CAMILO CABRERA ROMERO</t>
-  </si>
-  <si>
-    <t>1143386685</t>
-  </si>
-  <si>
-    <t>HERNAN LUIS DIAZ BELEÑO</t>
-  </si>
-  <si>
-    <t>98628785</t>
-  </si>
-  <si>
-    <t>WILSON DE JESUS MOLINA ESCOBAR</t>
-  </si>
-  <si>
-    <t>1001904116</t>
-  </si>
-  <si>
-    <t>MAURICIO VENAVIDES BLANQUICETT</t>
-  </si>
-  <si>
-    <t>1193577996</t>
-  </si>
-  <si>
-    <t>YULIETH ANDREA HERAZO HERRERA</t>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>1043659115</t>
+  </si>
+  <si>
+    <t>ARLYN MARIA ARENAS HERRERA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -548,7 +557,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -561,9 +572,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -763,23 +772,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -807,10 +816,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -863,7 +872,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6663FDF6-C504-65EE-3786-56DB33D7DA62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{398B61D6-B8F9-8FC4-9B06-7F8DC6C00908}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1214,8 +1223,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB630AFF-7803-4B3E-94AB-F702D5041D1A}">
-  <dimension ref="B2:J371"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76602F27-1577-4366-8B37-E04089825D9C}">
+  <dimension ref="B2:J376"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1239,7 +1248,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1284,7 +1293,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1316,12 +1325,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>12741090</v>
+        <v>12949283</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1332,17 +1341,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C13" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1369,13 +1378,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1406,19 +1415,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G17" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1435,7 +1444,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>24640</v>
@@ -1452,19 +1461,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G19" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1498,19 +1507,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G21" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1527,7 +1536,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>24640</v>
@@ -1544,19 +1553,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G23" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1573,7 +1582,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>24640</v>
@@ -1590,19 +1599,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G25" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1619,7 +1628,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>24640</v>
@@ -1636,19 +1645,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G27" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1665,7 +1674,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>24640</v>
@@ -1682,19 +1691,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G29" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1711,7 +1720,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>24640</v>
@@ -1728,19 +1737,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G31" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1757,7 +1766,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
         <v>24640</v>
@@ -1774,19 +1783,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G33" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1803,7 +1812,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>24640</v>
@@ -1820,19 +1829,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G35" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1849,7 +1858,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
         <v>24640</v>
@@ -1866,19 +1875,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G37" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1895,7 +1904,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
         <v>24640</v>
@@ -1912,19 +1921,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G39" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1941,7 +1950,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
         <v>24640</v>
@@ -1958,19 +1967,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G41" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1987,7 +1996,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
         <v>24640</v>
@@ -2004,19 +2013,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G43" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -2033,7 +2042,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
         <v>24640</v>
@@ -2050,19 +2059,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G45" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2079,7 +2088,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
         <v>24640</v>
@@ -2096,19 +2105,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G47" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2125,7 +2134,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
         <v>24640</v>
@@ -2142,19 +2151,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G49" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2171,7 +2180,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
         <v>24640</v>
@@ -2188,19 +2197,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G51" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2217,7 +2226,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
         <v>24640</v>
@@ -2234,19 +2243,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G53" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2263,7 +2272,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
         <v>24640</v>
@@ -2280,19 +2289,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G55" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2309,7 +2318,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
         <v>24640</v>
@@ -2326,19 +2335,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F57" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G57" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2355,7 +2364,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F58" s="18">
         <v>24640</v>
@@ -2372,19 +2381,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F59" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G59" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2401,7 +2410,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F60" s="18">
         <v>24640</v>
@@ -2418,19 +2427,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F61" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G61" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2447,7 +2456,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F62" s="18">
         <v>24640</v>
@@ -2464,19 +2473,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F63" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G63" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2493,7 +2502,7 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F64" s="18">
         <v>24640</v>
@@ -2510,19 +2519,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F65" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G65" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2539,7 +2548,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F66" s="18">
         <v>24640</v>
@@ -2556,19 +2565,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F67" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G67" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2585,7 +2594,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F68" s="18">
         <v>24640</v>
@@ -2602,19 +2611,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F69" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G69" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2631,7 +2640,7 @@
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F70" s="18">
         <v>24640</v>
@@ -2648,19 +2657,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F71" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G71" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2677,7 +2686,7 @@
         <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F72" s="18">
         <v>24640</v>
@@ -2694,19 +2703,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F73" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G73" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2723,7 +2732,7 @@
         <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="F74" s="18">
         <v>24640</v>
@@ -2740,19 +2749,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="F75" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G75" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2769,7 +2778,7 @@
         <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F76" s="18">
         <v>24640</v>
@@ -2786,19 +2795,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="F77" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G77" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2815,7 +2824,7 @@
         <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="F78" s="18">
         <v>24640</v>
@@ -2832,19 +2841,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F79" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G79" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2861,7 +2870,7 @@
         <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F80" s="18">
         <v>24640</v>
@@ -2878,19 +2887,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F81" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G81" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2901,19 +2910,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="F82" s="18">
-        <v>24640</v>
+        <v>34008</v>
       </c>
       <c r="G82" s="18">
-        <v>616000</v>
+        <v>1159366</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2930,7 +2939,7 @@
         <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="F83" s="18">
         <v>24640</v>
@@ -2947,19 +2956,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="F84" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G84" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2970,19 +2979,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="F85" s="18">
-        <v>24640</v>
+        <v>46375</v>
       </c>
       <c r="G85" s="18">
-        <v>616000</v>
+        <v>1159366</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2999,7 +3008,7 @@
         <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="F86" s="18">
         <v>24640</v>
@@ -3016,19 +3025,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="F87" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G87" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3039,19 +3048,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F88" s="18">
-        <v>24640</v>
+        <v>46375</v>
       </c>
       <c r="G88" s="18">
-        <v>616000</v>
+        <v>1159366</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3068,7 +3077,7 @@
         <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="F89" s="18">
         <v>24640</v>
@@ -3085,19 +3094,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="F90" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G90" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3108,19 +3117,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="F91" s="18">
-        <v>24640</v>
+        <v>46375</v>
       </c>
       <c r="G91" s="18">
-        <v>616000</v>
+        <v>1159366</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3137,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="F92" s="18">
         <v>24640</v>
@@ -3154,19 +3163,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="F93" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G93" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3177,19 +3186,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="F94" s="18">
-        <v>24640</v>
+        <v>46375</v>
       </c>
       <c r="G94" s="18">
-        <v>616000</v>
+        <v>1159366</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3206,7 +3215,7 @@
         <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="F95" s="18">
         <v>24640</v>
@@ -3223,19 +3232,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F96" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G96" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3246,19 +3255,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="F97" s="18">
-        <v>24640</v>
+        <v>46375</v>
       </c>
       <c r="G97" s="18">
-        <v>616000</v>
+        <v>1159366</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3275,7 +3284,7 @@
         <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="F98" s="18">
         <v>24640</v>
@@ -3292,19 +3301,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="F99" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G99" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3315,19 +3324,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="F100" s="18">
-        <v>24640</v>
+        <v>46375</v>
       </c>
       <c r="G100" s="18">
-        <v>616000</v>
+        <v>1159366</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3344,7 +3353,7 @@
         <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="F101" s="18">
         <v>24640</v>
@@ -3361,19 +3370,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="F102" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G102" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3384,19 +3393,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="F103" s="18">
-        <v>24640</v>
+        <v>46375</v>
       </c>
       <c r="G103" s="18">
-        <v>616000</v>
+        <v>1159366</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3413,7 +3422,7 @@
         <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="F104" s="18">
         <v>24640</v>
@@ -3430,19 +3439,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="F105" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G105" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3453,19 +3462,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="F106" s="18">
-        <v>24640</v>
+        <v>46375</v>
       </c>
       <c r="G106" s="18">
-        <v>616000</v>
+        <v>1159366</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3482,7 +3491,7 @@
         <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="F107" s="18">
         <v>24640</v>
@@ -3499,19 +3508,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="F108" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G108" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3522,19 +3531,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="F109" s="18">
-        <v>24640</v>
+        <v>46375</v>
       </c>
       <c r="G109" s="18">
-        <v>616000</v>
+        <v>1159366</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3551,7 +3560,7 @@
         <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="F110" s="18">
         <v>24640</v>
@@ -3568,19 +3577,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="F111" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G111" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3591,19 +3600,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="F112" s="18">
-        <v>24640</v>
+        <v>46375</v>
       </c>
       <c r="G112" s="18">
-        <v>616000</v>
+        <v>1159366</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3620,7 +3629,7 @@
         <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="F113" s="18">
         <v>24640</v>
@@ -3637,19 +3646,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="F114" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G114" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3660,19 +3669,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="F115" s="18">
-        <v>24640</v>
+        <v>46375</v>
       </c>
       <c r="G115" s="18">
-        <v>616000</v>
+        <v>1159366</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3689,7 +3698,7 @@
         <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="F116" s="18">
         <v>24640</v>
@@ -3706,19 +3715,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="F117" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G117" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3729,19 +3738,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="F118" s="18">
-        <v>24640</v>
+        <v>46375</v>
       </c>
       <c r="G118" s="18">
-        <v>616000</v>
+        <v>1159366</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3758,7 +3767,7 @@
         <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="F119" s="18">
         <v>24640</v>
@@ -3775,19 +3784,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="F120" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G120" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3798,19 +3807,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="F121" s="18">
-        <v>24640</v>
+        <v>46375</v>
       </c>
       <c r="G121" s="18">
-        <v>616000</v>
+        <v>1159366</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3827,7 +3836,7 @@
         <v>10</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="F122" s="18">
         <v>24640</v>
@@ -3844,19 +3853,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="F123" s="18">
-        <v>24640</v>
+        <v>32000</v>
       </c>
       <c r="G123" s="18">
-        <v>616000</v>
+        <v>800000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3867,19 +3876,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="F124" s="18">
-        <v>24640</v>
+        <v>46375</v>
       </c>
       <c r="G124" s="18">
-        <v>616000</v>
+        <v>1159366</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3890,19 +3899,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="F125" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G125" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3913,13 +3922,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="F126" s="18">
         <v>32000</v>
@@ -3936,19 +3945,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="F127" s="18">
-        <v>32000</v>
+        <v>46375</v>
       </c>
       <c r="G127" s="18">
-        <v>800000</v>
+        <v>1159366</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3959,19 +3968,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F128" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G128" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3982,13 +3991,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="F129" s="18">
         <v>32000</v>
@@ -4005,19 +4014,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F130" s="18">
-        <v>32000</v>
+        <v>46375</v>
       </c>
       <c r="G130" s="18">
-        <v>800000</v>
+        <v>1159366</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4028,19 +4037,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="F131" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G131" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4051,13 +4060,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F132" s="18">
         <v>32000</v>
@@ -4074,19 +4083,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F133" s="18">
-        <v>32000</v>
+        <v>46375</v>
       </c>
       <c r="G133" s="18">
-        <v>800000</v>
+        <v>1159366</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4097,19 +4106,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F134" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G134" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4120,13 +4129,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="F135" s="18">
         <v>32000</v>
@@ -4143,19 +4152,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="F136" s="18">
-        <v>32000</v>
+        <v>46375</v>
       </c>
       <c r="G136" s="18">
-        <v>800000</v>
+        <v>1159366</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4166,19 +4175,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="F137" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G137" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4189,13 +4198,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="F138" s="18">
         <v>32000</v>
@@ -4212,19 +4221,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="F139" s="18">
-        <v>32000</v>
+        <v>46375</v>
       </c>
       <c r="G139" s="18">
-        <v>800000</v>
+        <v>1159366</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4235,19 +4244,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="F140" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G140" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4258,13 +4267,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="F141" s="18">
         <v>32000</v>
@@ -4281,19 +4290,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="F142" s="18">
-        <v>32000</v>
+        <v>46375</v>
       </c>
       <c r="G142" s="18">
-        <v>800000</v>
+        <v>1159366</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4304,19 +4313,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="F143" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G143" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4327,13 +4336,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="F144" s="18">
         <v>32000</v>
@@ -4350,19 +4359,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="F145" s="18">
-        <v>32000</v>
+        <v>46375</v>
       </c>
       <c r="G145" s="18">
-        <v>800000</v>
+        <v>1159366</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4373,19 +4382,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="F146" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G146" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4396,13 +4405,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="F147" s="18">
         <v>32000</v>
@@ -4419,19 +4428,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F148" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G148" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4442,13 +4451,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F149" s="18">
         <v>32000</v>
@@ -4465,19 +4474,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="F150" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G150" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4488,13 +4497,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F151" s="18">
         <v>32000</v>
@@ -4511,19 +4520,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="F152" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G152" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4534,13 +4543,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="F153" s="18">
         <v>32000</v>
@@ -4557,19 +4566,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="F154" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G154" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4580,13 +4589,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="F155" s="18">
         <v>32000</v>
@@ -4603,19 +4612,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="F156" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G156" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4626,13 +4635,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="F157" s="18">
         <v>32000</v>
@@ -4649,19 +4658,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F158" s="18">
-        <v>32000</v>
+        <v>28824</v>
       </c>
       <c r="G158" s="18">
-        <v>800000</v>
+        <v>6049000</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4672,19 +4681,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="F159" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G159" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4695,13 +4704,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F160" s="18">
         <v>32000</v>
@@ -4718,19 +4727,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="F161" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G161" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4741,13 +4750,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="F162" s="18">
         <v>32000</v>
@@ -4764,19 +4773,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="F163" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G163" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4787,13 +4796,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="F164" s="18">
         <v>32000</v>
@@ -4810,19 +4819,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="F165" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G165" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4833,13 +4842,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F166" s="18">
         <v>32000</v>
@@ -4856,19 +4865,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F167" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G167" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4879,13 +4888,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="F168" s="18">
         <v>32000</v>
@@ -4902,19 +4911,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="F169" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G169" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4925,13 +4934,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="F170" s="18">
         <v>32000</v>
@@ -4948,19 +4957,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="F171" s="18">
-        <v>32000</v>
+        <v>37613</v>
       </c>
       <c r="G171" s="18">
-        <v>800000</v>
+        <v>940324</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4971,19 +4980,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="F172" s="18">
-        <v>32000</v>
+        <v>16959</v>
       </c>
       <c r="G172" s="18">
-        <v>800000</v>
+        <v>908526</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4994,19 +5003,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="F173" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G173" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -5017,13 +5026,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="F174" s="18">
         <v>32000</v>
@@ -5040,19 +5049,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="F175" s="18">
-        <v>32000</v>
+        <v>37613</v>
       </c>
       <c r="G175" s="18">
-        <v>800000</v>
+        <v>940324</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5063,19 +5072,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="F176" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G176" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5086,13 +5095,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="F177" s="18">
         <v>32000</v>
@@ -5109,19 +5118,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="F178" s="18">
-        <v>32000</v>
+        <v>37613</v>
       </c>
       <c r="G178" s="18">
-        <v>800000</v>
+        <v>940324</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5132,19 +5141,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F179" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G179" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5155,13 +5164,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="F180" s="18">
         <v>32000</v>
@@ -5178,19 +5187,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="F181" s="18">
-        <v>32000</v>
+        <v>37613</v>
       </c>
       <c r="G181" s="18">
-        <v>800000</v>
+        <v>940324</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5201,19 +5210,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F182" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G182" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5224,13 +5233,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="F183" s="18">
         <v>32000</v>
@@ -5247,19 +5256,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F184" s="18">
-        <v>32000</v>
+        <v>40246</v>
       </c>
       <c r="G184" s="18">
-        <v>800000</v>
+        <v>1167131</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5270,19 +5279,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="F185" s="18">
-        <v>32000</v>
+        <v>37613</v>
       </c>
       <c r="G185" s="18">
-        <v>800000</v>
+        <v>940324</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5293,19 +5302,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F186" s="18">
-        <v>32000</v>
+        <v>40246</v>
       </c>
       <c r="G186" s="18">
-        <v>800000</v>
+        <v>1276000</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5316,19 +5325,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F187" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G187" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5339,13 +5348,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F188" s="18">
         <v>32000</v>
@@ -5362,19 +5371,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="F189" s="18">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="G189" s="18">
-        <v>800000</v>
+        <v>2081000</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5385,19 +5394,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="F190" s="18">
-        <v>32000</v>
+        <v>37613</v>
       </c>
       <c r="G190" s="18">
-        <v>800000</v>
+        <v>940324</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5408,19 +5417,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F191" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G191" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5431,13 +5440,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="F192" s="18">
         <v>32000</v>
@@ -5454,19 +5463,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F193" s="18">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="G193" s="18">
-        <v>800000</v>
+        <v>2081000</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5477,19 +5486,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F194" s="18">
-        <v>32000</v>
+        <v>37613</v>
       </c>
       <c r="G194" s="18">
-        <v>800000</v>
+        <v>940324</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5500,19 +5509,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="F195" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G195" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5523,13 +5532,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F196" s="18">
         <v>32000</v>
@@ -5546,19 +5555,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F197" s="18">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="G197" s="18">
-        <v>800000</v>
+        <v>2081000</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5569,19 +5578,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F198" s="18">
-        <v>32000</v>
+        <v>37613</v>
       </c>
       <c r="G198" s="18">
-        <v>800000</v>
+        <v>940324</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5592,19 +5601,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F199" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G199" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5615,13 +5624,13 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F200" s="18">
         <v>32000</v>
@@ -5638,19 +5647,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F201" s="18">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="G201" s="18">
-        <v>800000</v>
+        <v>2081000</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5661,19 +5670,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F202" s="18">
-        <v>32000</v>
+        <v>37613</v>
       </c>
       <c r="G202" s="18">
-        <v>800000</v>
+        <v>940324</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5684,19 +5693,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F203" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G203" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5707,13 +5716,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F204" s="18">
         <v>32000</v>
@@ -5730,19 +5739,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F205" s="18">
-        <v>32000</v>
+        <v>37613</v>
       </c>
       <c r="G205" s="18">
-        <v>800000</v>
+        <v>940324</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5753,19 +5762,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F206" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G206" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5776,13 +5785,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F207" s="18">
         <v>32000</v>
@@ -5799,19 +5808,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F208" s="18">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="G208" s="18">
-        <v>800000</v>
+        <v>2081000</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5822,19 +5831,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F209" s="18">
-        <v>32000</v>
+        <v>37613</v>
       </c>
       <c r="G209" s="18">
-        <v>800000</v>
+        <v>940324</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5845,19 +5854,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F210" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G210" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5868,13 +5877,13 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F211" s="18">
         <v>32000</v>
@@ -5891,19 +5900,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F212" s="18">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="G212" s="18">
-        <v>800000</v>
+        <v>2081000</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5914,19 +5923,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F213" s="18">
-        <v>32000</v>
+        <v>37613</v>
       </c>
       <c r="G213" s="18">
-        <v>800000</v>
+        <v>940324</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5937,19 +5946,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F214" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G214" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5960,13 +5969,13 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F215" s="18">
         <v>32000</v>
@@ -5983,19 +5992,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F216" s="18">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="G216" s="18">
-        <v>800000</v>
+        <v>2081000</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -6006,19 +6015,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F217" s="18">
-        <v>32000</v>
+        <v>37613</v>
       </c>
       <c r="G217" s="18">
-        <v>800000</v>
+        <v>940324</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -6029,19 +6038,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F218" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G218" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -6052,10 +6061,10 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E219" s="16" t="s">
         <v>105</v>
@@ -6075,19 +6084,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F220" s="18">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="G220" s="18">
-        <v>800000</v>
+        <v>2081000</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -6098,19 +6107,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F221" s="18">
-        <v>32000</v>
+        <v>37613</v>
       </c>
       <c r="G221" s="18">
-        <v>800000</v>
+        <v>940324</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6121,19 +6130,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F222" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G222" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6144,13 +6153,13 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F223" s="18">
         <v>32000</v>
@@ -6167,19 +6176,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F224" s="18">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="G224" s="18">
-        <v>800000</v>
+        <v>2081000</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6190,19 +6199,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F225" s="18">
-        <v>32000</v>
+        <v>37613</v>
       </c>
       <c r="G225" s="18">
-        <v>800000</v>
+        <v>940324</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6213,19 +6222,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F226" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G226" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6236,13 +6245,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F227" s="18">
         <v>32000</v>
@@ -6259,19 +6268,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F228" s="18">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="G228" s="18">
-        <v>800000</v>
+        <v>2081000</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6282,19 +6291,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F229" s="18">
-        <v>32000</v>
+        <v>37613</v>
       </c>
       <c r="G229" s="18">
-        <v>800000</v>
+        <v>940324</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6305,19 +6314,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F230" s="18">
-        <v>32000</v>
+        <v>24640</v>
       </c>
       <c r="G230" s="18">
-        <v>800000</v>
+        <v>616000</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6328,13 +6337,13 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F231" s="18">
         <v>32000</v>
@@ -6351,19 +6360,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F232" s="18">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="G232" s="18">
-        <v>800000</v>
+        <v>2081000</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6374,19 +6383,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F233" s="18">
-        <v>32000</v>
+        <v>37613</v>
       </c>
       <c r="G233" s="18">
-        <v>800000</v>
+        <v>940324</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6397,19 +6406,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F234" s="18">
-        <v>83240</v>
+        <v>49760</v>
       </c>
       <c r="G234" s="18">
-        <v>2081000</v>
+        <v>1244000</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6420,19 +6429,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="F235" s="18">
-        <v>83240</v>
+        <v>24640</v>
       </c>
       <c r="G235" s="18">
-        <v>2081000</v>
+        <v>616000</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6443,19 +6452,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="F236" s="18">
-        <v>83240</v>
+        <v>32000</v>
       </c>
       <c r="G236" s="18">
-        <v>2081000</v>
+        <v>800000</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6466,19 +6475,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="F237" s="18">
-        <v>76000</v>
+        <v>37613</v>
       </c>
       <c r="G237" s="18">
-        <v>2081000</v>
+        <v>940324</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6489,19 +6498,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="F238" s="18">
-        <v>76000</v>
+        <v>49760</v>
       </c>
       <c r="G238" s="18">
-        <v>2081000</v>
+        <v>1244000</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6512,19 +6521,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="F239" s="18">
-        <v>76000</v>
+        <v>24640</v>
       </c>
       <c r="G239" s="18">
-        <v>2081000</v>
+        <v>616000</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6535,19 +6544,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="F240" s="18">
-        <v>76000</v>
+        <v>32000</v>
       </c>
       <c r="G240" s="18">
-        <v>2081000</v>
+        <v>800000</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6558,16 +6567,16 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="F241" s="18">
-        <v>76000</v>
+        <v>69600</v>
       </c>
       <c r="G241" s="18">
         <v>2081000</v>
@@ -6581,19 +6590,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="F242" s="18">
-        <v>76000</v>
+        <v>37613</v>
       </c>
       <c r="G242" s="18">
-        <v>2081000</v>
+        <v>940324</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6604,19 +6613,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="F243" s="18">
-        <v>76000</v>
+        <v>49760</v>
       </c>
       <c r="G243" s="18">
-        <v>2081000</v>
+        <v>1244000</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6627,19 +6636,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="F244" s="18">
-        <v>76000</v>
+        <v>24640</v>
       </c>
       <c r="G244" s="18">
-        <v>2081000</v>
+        <v>616000</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6650,19 +6659,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="F245" s="18">
-        <v>76000</v>
+        <v>32000</v>
       </c>
       <c r="G245" s="18">
-        <v>2081000</v>
+        <v>800000</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6673,16 +6682,16 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="F246" s="18">
-        <v>76000</v>
+        <v>69600</v>
       </c>
       <c r="G246" s="18">
         <v>2081000</v>
@@ -6696,19 +6705,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="F247" s="18">
-        <v>76000</v>
+        <v>37613</v>
       </c>
       <c r="G247" s="18">
-        <v>2081000</v>
+        <v>940324</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6719,19 +6728,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="F248" s="18">
-        <v>76000</v>
+        <v>49760</v>
       </c>
       <c r="G248" s="18">
-        <v>2081000</v>
+        <v>1244000</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6742,19 +6751,19 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="F249" s="18">
-        <v>76000</v>
+        <v>24640</v>
       </c>
       <c r="G249" s="18">
-        <v>2081000</v>
+        <v>616000</v>
       </c>
       <c r="H249" s="19"/>
       <c r="I249" s="19"/>
@@ -6765,19 +6774,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="F250" s="18">
-        <v>69600</v>
+        <v>32000</v>
       </c>
       <c r="G250" s="18">
-        <v>2081000</v>
+        <v>800000</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6788,13 +6797,13 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="F251" s="18">
         <v>69600</v>
@@ -6811,19 +6820,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="F252" s="18">
-        <v>69600</v>
+        <v>37613</v>
       </c>
       <c r="G252" s="18">
-        <v>2081000</v>
+        <v>940324</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6834,19 +6843,19 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="F253" s="18">
-        <v>69600</v>
+        <v>49760</v>
       </c>
       <c r="G253" s="18">
-        <v>2081000</v>
+        <v>1244000</v>
       </c>
       <c r="H253" s="19"/>
       <c r="I253" s="19"/>
@@ -6857,19 +6866,19 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="F254" s="18">
-        <v>69600</v>
+        <v>24640</v>
       </c>
       <c r="G254" s="18">
-        <v>2081000</v>
+        <v>616000</v>
       </c>
       <c r="H254" s="19"/>
       <c r="I254" s="19"/>
@@ -6880,19 +6889,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="F255" s="18">
-        <v>69600</v>
+        <v>32000</v>
       </c>
       <c r="G255" s="18">
-        <v>2081000</v>
+        <v>800000</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6903,13 +6912,13 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="F256" s="18">
         <v>69600</v>
@@ -6926,19 +6935,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="F257" s="18">
-        <v>60000</v>
+        <v>37613</v>
       </c>
       <c r="G257" s="18">
-        <v>2081000</v>
+        <v>940324</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6949,19 +6958,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="F258" s="18">
-        <v>60000</v>
+        <v>49760</v>
       </c>
       <c r="G258" s="18">
-        <v>2081000</v>
+        <v>1244000</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -6972,19 +6981,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="F259" s="18">
-        <v>60000</v>
+        <v>24640</v>
       </c>
       <c r="G259" s="18">
-        <v>2081000</v>
+        <v>616000</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -6995,19 +7004,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="F260" s="18">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="G260" s="18">
-        <v>2081000</v>
+        <v>800000</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -7018,16 +7027,16 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="F261" s="18">
-        <v>60000</v>
+        <v>69600</v>
       </c>
       <c r="G261" s="18">
         <v>2081000</v>
@@ -7041,19 +7050,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="F262" s="18">
-        <v>60000</v>
+        <v>37613</v>
       </c>
       <c r="G262" s="18">
-        <v>2081000</v>
+        <v>940324</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -7064,19 +7073,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="F263" s="18">
-        <v>60000</v>
+        <v>49760</v>
       </c>
       <c r="G263" s="18">
-        <v>2081000</v>
+        <v>1244000</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -7087,19 +7096,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="F264" s="18">
-        <v>60000</v>
+        <v>24640</v>
       </c>
       <c r="G264" s="18">
-        <v>2081000</v>
+        <v>616000</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
@@ -7110,19 +7119,19 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="F265" s="18">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="G265" s="18">
-        <v>2081000</v>
+        <v>800000</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -7133,16 +7142,16 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="F266" s="18">
-        <v>60000</v>
+        <v>69600</v>
       </c>
       <c r="G266" s="18">
         <v>2081000</v>
@@ -7156,19 +7165,19 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="F267" s="18">
-        <v>60000</v>
+        <v>37613</v>
       </c>
       <c r="G267" s="18">
-        <v>2081000</v>
+        <v>940324</v>
       </c>
       <c r="H267" s="19"/>
       <c r="I267" s="19"/>
@@ -7179,19 +7188,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="F268" s="18">
-        <v>40246</v>
+        <v>49760</v>
       </c>
       <c r="G268" s="18">
-        <v>1006147</v>
+        <v>1244000</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7202,19 +7211,19 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="F269" s="18">
-        <v>37613</v>
+        <v>24640</v>
       </c>
       <c r="G269" s="18">
-        <v>940324</v>
+        <v>616000</v>
       </c>
       <c r="H269" s="19"/>
       <c r="I269" s="19"/>
@@ -7225,19 +7234,19 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="F270" s="18">
-        <v>37613</v>
+        <v>32000</v>
       </c>
       <c r="G270" s="18">
-        <v>940324</v>
+        <v>800000</v>
       </c>
       <c r="H270" s="19"/>
       <c r="I270" s="19"/>
@@ -7248,19 +7257,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F271" s="18">
-        <v>37613</v>
+        <v>69600</v>
       </c>
       <c r="G271" s="18">
-        <v>940324</v>
+        <v>2081000</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7271,13 +7280,13 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="F272" s="18">
         <v>37613</v>
@@ -7294,19 +7303,19 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="F273" s="18">
-        <v>37613</v>
+        <v>49760</v>
       </c>
       <c r="G273" s="18">
-        <v>940324</v>
+        <v>1244000</v>
       </c>
       <c r="H273" s="19"/>
       <c r="I273" s="19"/>
@@ -7317,19 +7326,19 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="F274" s="18">
-        <v>37613</v>
+        <v>24640</v>
       </c>
       <c r="G274" s="18">
-        <v>940324</v>
+        <v>616000</v>
       </c>
       <c r="H274" s="19"/>
       <c r="I274" s="19"/>
@@ -7340,19 +7349,19 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="F275" s="18">
-        <v>37613</v>
+        <v>32000</v>
       </c>
       <c r="G275" s="18">
-        <v>940324</v>
+        <v>800000</v>
       </c>
       <c r="H275" s="19"/>
       <c r="I275" s="19"/>
@@ -7363,13 +7372,13 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="F276" s="18">
         <v>37613</v>
@@ -7386,19 +7395,19 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="F277" s="18">
-        <v>37613</v>
+        <v>49760</v>
       </c>
       <c r="G277" s="18">
-        <v>940324</v>
+        <v>1244000</v>
       </c>
       <c r="H277" s="19"/>
       <c r="I277" s="19"/>
@@ -7409,19 +7418,19 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F278" s="18">
-        <v>37613</v>
+        <v>24640</v>
       </c>
       <c r="G278" s="18">
-        <v>940324</v>
+        <v>616000</v>
       </c>
       <c r="H278" s="19"/>
       <c r="I278" s="19"/>
@@ -7432,19 +7441,19 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="F279" s="18">
-        <v>37613</v>
+        <v>32000</v>
       </c>
       <c r="G279" s="18">
-        <v>940324</v>
+        <v>800000</v>
       </c>
       <c r="H279" s="19"/>
       <c r="I279" s="19"/>
@@ -7455,19 +7464,19 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="F280" s="18">
-        <v>37613</v>
+        <v>76000</v>
       </c>
       <c r="G280" s="18">
-        <v>940324</v>
+        <v>2081000</v>
       </c>
       <c r="H280" s="19"/>
       <c r="I280" s="19"/>
@@ -7478,13 +7487,13 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="F281" s="18">
         <v>37613</v>
@@ -7501,19 +7510,19 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="F282" s="18">
-        <v>37613</v>
+        <v>49760</v>
       </c>
       <c r="G282" s="18">
-        <v>940324</v>
+        <v>1244000</v>
       </c>
       <c r="H282" s="19"/>
       <c r="I282" s="19"/>
@@ -7524,19 +7533,19 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="F283" s="18">
-        <v>37613</v>
+        <v>24640</v>
       </c>
       <c r="G283" s="18">
-        <v>940324</v>
+        <v>616000</v>
       </c>
       <c r="H283" s="19"/>
       <c r="I283" s="19"/>
@@ -7547,19 +7556,19 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="F284" s="18">
-        <v>37613</v>
+        <v>32000</v>
       </c>
       <c r="G284" s="18">
-        <v>940324</v>
+        <v>800000</v>
       </c>
       <c r="H284" s="19"/>
       <c r="I284" s="19"/>
@@ -7570,19 +7579,19 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="F285" s="18">
-        <v>37613</v>
+        <v>76000</v>
       </c>
       <c r="G285" s="18">
-        <v>940324</v>
+        <v>2081000</v>
       </c>
       <c r="H285" s="19"/>
       <c r="I285" s="19"/>
@@ -7593,13 +7602,13 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="F286" s="18">
         <v>37613</v>
@@ -7616,19 +7625,19 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="F287" s="18">
-        <v>37613</v>
+        <v>49760</v>
       </c>
       <c r="G287" s="18">
-        <v>940324</v>
+        <v>1244000</v>
       </c>
       <c r="H287" s="19"/>
       <c r="I287" s="19"/>
@@ -7639,19 +7648,19 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="F288" s="18">
-        <v>37613</v>
+        <v>24640</v>
       </c>
       <c r="G288" s="18">
-        <v>940324</v>
+        <v>616000</v>
       </c>
       <c r="H288" s="19"/>
       <c r="I288" s="19"/>
@@ -7662,19 +7671,19 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="F289" s="18">
-        <v>37613</v>
+        <v>32000</v>
       </c>
       <c r="G289" s="18">
-        <v>940324</v>
+        <v>800000</v>
       </c>
       <c r="H289" s="19"/>
       <c r="I289" s="19"/>
@@ -7685,19 +7694,19 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="F290" s="18">
-        <v>37613</v>
+        <v>76000</v>
       </c>
       <c r="G290" s="18">
-        <v>940324</v>
+        <v>2081000</v>
       </c>
       <c r="H290" s="19"/>
       <c r="I290" s="19"/>
@@ -7708,13 +7717,13 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="F291" s="18">
         <v>37613</v>
@@ -7731,19 +7740,19 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="F292" s="18">
-        <v>37613</v>
+        <v>49760</v>
       </c>
       <c r="G292" s="18">
-        <v>940324</v>
+        <v>1244000</v>
       </c>
       <c r="H292" s="19"/>
       <c r="I292" s="19"/>
@@ -7754,19 +7763,19 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="F293" s="18">
-        <v>37613</v>
+        <v>24640</v>
       </c>
       <c r="G293" s="18">
-        <v>940324</v>
+        <v>616000</v>
       </c>
       <c r="H293" s="19"/>
       <c r="I293" s="19"/>
@@ -7777,19 +7786,19 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="F294" s="18">
-        <v>37613</v>
+        <v>32000</v>
       </c>
       <c r="G294" s="18">
-        <v>940324</v>
+        <v>800000</v>
       </c>
       <c r="H294" s="19"/>
       <c r="I294" s="19"/>
@@ -7800,19 +7809,19 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="F295" s="18">
-        <v>37613</v>
+        <v>76000</v>
       </c>
       <c r="G295" s="18">
-        <v>940324</v>
+        <v>2081000</v>
       </c>
       <c r="H295" s="19"/>
       <c r="I295" s="19"/>
@@ -7823,13 +7832,13 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="F296" s="18">
         <v>37613</v>
@@ -7846,19 +7855,19 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="F297" s="18">
-        <v>37613</v>
+        <v>49760</v>
       </c>
       <c r="G297" s="18">
-        <v>940324</v>
+        <v>1244000</v>
       </c>
       <c r="H297" s="19"/>
       <c r="I297" s="19"/>
@@ -7869,19 +7878,19 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="F298" s="18">
-        <v>37613</v>
+        <v>24640</v>
       </c>
       <c r="G298" s="18">
-        <v>940324</v>
+        <v>616000</v>
       </c>
       <c r="H298" s="19"/>
       <c r="I298" s="19"/>
@@ -7892,19 +7901,19 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="F299" s="18">
-        <v>37613</v>
+        <v>32000</v>
       </c>
       <c r="G299" s="18">
-        <v>940324</v>
+        <v>800000</v>
       </c>
       <c r="H299" s="19"/>
       <c r="I299" s="19"/>
@@ -7915,19 +7924,19 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="F300" s="18">
-        <v>37613</v>
+        <v>76000</v>
       </c>
       <c r="G300" s="18">
-        <v>940324</v>
+        <v>2081000</v>
       </c>
       <c r="H300" s="19"/>
       <c r="I300" s="19"/>
@@ -7938,13 +7947,13 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="F301" s="18">
         <v>37613</v>
@@ -7961,19 +7970,19 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="F302" s="18">
-        <v>37613</v>
+        <v>49760</v>
       </c>
       <c r="G302" s="18">
-        <v>940324</v>
+        <v>1244000</v>
       </c>
       <c r="H302" s="19"/>
       <c r="I302" s="19"/>
@@ -7984,19 +7993,19 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="F303" s="18">
-        <v>37613</v>
+        <v>24640</v>
       </c>
       <c r="G303" s="18">
-        <v>940324</v>
+        <v>616000</v>
       </c>
       <c r="H303" s="19"/>
       <c r="I303" s="19"/>
@@ -8007,19 +8016,19 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="F304" s="18">
-        <v>37613</v>
+        <v>32000</v>
       </c>
       <c r="G304" s="18">
-        <v>940324</v>
+        <v>800000</v>
       </c>
       <c r="H304" s="19"/>
       <c r="I304" s="19"/>
@@ -8030,19 +8039,19 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="F305" s="18">
-        <v>37613</v>
+        <v>76000</v>
       </c>
       <c r="G305" s="18">
-        <v>940324</v>
+        <v>2081000</v>
       </c>
       <c r="H305" s="19"/>
       <c r="I305" s="19"/>
@@ -8053,13 +8062,13 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="F306" s="18">
         <v>37613</v>
@@ -8076,19 +8085,19 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="F307" s="18">
-        <v>37613</v>
+        <v>49760</v>
       </c>
       <c r="G307" s="18">
-        <v>940324</v>
+        <v>1244000</v>
       </c>
       <c r="H307" s="19"/>
       <c r="I307" s="19"/>
@@ -8099,19 +8108,19 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D308" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E308" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D308" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E308" s="16" t="s">
-        <v>50</v>
-      </c>
       <c r="F308" s="18">
-        <v>37613</v>
+        <v>24640</v>
       </c>
       <c r="G308" s="18">
-        <v>940324</v>
+        <v>616000</v>
       </c>
       <c r="H308" s="19"/>
       <c r="I308" s="19"/>
@@ -8122,19 +8131,19 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D309" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E309" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D309" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E309" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="F309" s="18">
-        <v>37613</v>
+        <v>32000</v>
       </c>
       <c r="G309" s="18">
-        <v>940324</v>
+        <v>800000</v>
       </c>
       <c r="H309" s="19"/>
       <c r="I309" s="19"/>
@@ -8145,19 +8154,19 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D310" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E310" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D310" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E310" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="F310" s="18">
-        <v>37613</v>
+        <v>76000</v>
       </c>
       <c r="G310" s="18">
-        <v>940324</v>
+        <v>2081000</v>
       </c>
       <c r="H310" s="19"/>
       <c r="I310" s="19"/>
@@ -8168,13 +8177,13 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D311" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E311" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="D311" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E311" s="16" t="s">
-        <v>53</v>
       </c>
       <c r="F311" s="18">
         <v>37613</v>
@@ -8191,19 +8200,19 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D312" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E312" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D312" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E312" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="F312" s="18">
-        <v>37613</v>
+        <v>49760</v>
       </c>
       <c r="G312" s="18">
-        <v>940324</v>
+        <v>1244000</v>
       </c>
       <c r="H312" s="19"/>
       <c r="I312" s="19"/>
@@ -8214,19 +8223,19 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="F313" s="18">
-        <v>46375</v>
+        <v>24640</v>
       </c>
       <c r="G313" s="18">
-        <v>1159366</v>
+        <v>616000</v>
       </c>
       <c r="H313" s="19"/>
       <c r="I313" s="19"/>
@@ -8237,19 +8246,19 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="F314" s="18">
-        <v>46375</v>
+        <v>32000</v>
       </c>
       <c r="G314" s="18">
-        <v>1159366</v>
+        <v>800000</v>
       </c>
       <c r="H314" s="19"/>
       <c r="I314" s="19"/>
@@ -8260,19 +8269,19 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="F315" s="18">
-        <v>46375</v>
+        <v>37613</v>
       </c>
       <c r="G315" s="18">
-        <v>1159366</v>
+        <v>940324</v>
       </c>
       <c r="H315" s="19"/>
       <c r="I315" s="19"/>
@@ -8283,19 +8292,19 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="F316" s="18">
-        <v>46375</v>
+        <v>49760</v>
       </c>
       <c r="G316" s="18">
-        <v>1159366</v>
+        <v>1244000</v>
       </c>
       <c r="H316" s="19"/>
       <c r="I316" s="19"/>
@@ -8306,19 +8315,19 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D317" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E317" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D317" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E317" s="16" t="s">
-        <v>70</v>
-      </c>
       <c r="F317" s="18">
-        <v>46375</v>
+        <v>24640</v>
       </c>
       <c r="G317" s="18">
-        <v>1159366</v>
+        <v>616000</v>
       </c>
       <c r="H317" s="19"/>
       <c r="I317" s="19"/>
@@ -8329,19 +8338,19 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D318" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E318" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D318" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E318" s="16" t="s">
-        <v>71</v>
-      </c>
       <c r="F318" s="18">
-        <v>46375</v>
+        <v>32000</v>
       </c>
       <c r="G318" s="18">
-        <v>1159366</v>
+        <v>800000</v>
       </c>
       <c r="H318" s="19"/>
       <c r="I318" s="19"/>
@@ -8352,19 +8361,19 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D319" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E319" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D319" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E319" s="16" t="s">
-        <v>72</v>
-      </c>
       <c r="F319" s="18">
-        <v>46375</v>
+        <v>76000</v>
       </c>
       <c r="G319" s="18">
-        <v>1159366</v>
+        <v>2081000</v>
       </c>
       <c r="H319" s="19"/>
       <c r="I319" s="19"/>
@@ -8375,19 +8384,19 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D320" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E320" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D320" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E320" s="16" t="s">
-        <v>73</v>
-      </c>
       <c r="F320" s="18">
-        <v>46375</v>
+        <v>37613</v>
       </c>
       <c r="G320" s="18">
-        <v>1159366</v>
+        <v>940324</v>
       </c>
       <c r="H320" s="19"/>
       <c r="I320" s="19"/>
@@ -8398,19 +8407,19 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D321" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E321" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D321" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E321" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="F321" s="18">
-        <v>46375</v>
+        <v>49760</v>
       </c>
       <c r="G321" s="18">
-        <v>1159366</v>
+        <v>1244000</v>
       </c>
       <c r="H321" s="19"/>
       <c r="I321" s="19"/>
@@ -8421,19 +8430,19 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D322" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E322" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E322" s="16" t="s">
-        <v>75</v>
-      </c>
       <c r="F322" s="18">
-        <v>46375</v>
+        <v>24640</v>
       </c>
       <c r="G322" s="18">
-        <v>1159366</v>
+        <v>616000</v>
       </c>
       <c r="H322" s="19"/>
       <c r="I322" s="19"/>
@@ -8444,19 +8453,19 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D323" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E323" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E323" s="16" t="s">
-        <v>76</v>
-      </c>
       <c r="F323" s="18">
-        <v>46375</v>
+        <v>32000</v>
       </c>
       <c r="G323" s="18">
-        <v>1159366</v>
+        <v>800000</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19"/>
@@ -8467,19 +8476,19 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="D324" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E324" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E324" s="16" t="s">
-        <v>77</v>
-      </c>
       <c r="F324" s="18">
-        <v>46375</v>
+        <v>76000</v>
       </c>
       <c r="G324" s="18">
-        <v>1159366</v>
+        <v>2081000</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19"/>
@@ -8490,19 +8499,19 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="D325" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E325" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E325" s="16" t="s">
-        <v>78</v>
-      </c>
       <c r="F325" s="18">
-        <v>46375</v>
+        <v>37613</v>
       </c>
       <c r="G325" s="18">
-        <v>1159366</v>
+        <v>940324</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19"/>
@@ -8513,19 +8522,19 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D326" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E326" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E326" s="16" t="s">
-        <v>79</v>
-      </c>
       <c r="F326" s="18">
-        <v>46375</v>
+        <v>49760</v>
       </c>
       <c r="G326" s="18">
-        <v>1159366</v>
+        <v>1244000</v>
       </c>
       <c r="H326" s="19"/>
       <c r="I326" s="19"/>
@@ -8536,19 +8545,19 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="F327" s="18">
-        <v>46375</v>
+        <v>24640</v>
       </c>
       <c r="G327" s="18">
-        <v>1159366</v>
+        <v>616000</v>
       </c>
       <c r="H327" s="19"/>
       <c r="I327" s="19"/>
@@ -8559,19 +8568,19 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="F328" s="18">
-        <v>46375</v>
+        <v>32000</v>
       </c>
       <c r="G328" s="18">
-        <v>1159366</v>
+        <v>800000</v>
       </c>
       <c r="H328" s="19"/>
       <c r="I328" s="19"/>
@@ -8582,19 +8591,19 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="F329" s="18">
-        <v>46375</v>
+        <v>37613</v>
       </c>
       <c r="G329" s="18">
-        <v>1159366</v>
+        <v>940324</v>
       </c>
       <c r="H329" s="19"/>
       <c r="I329" s="19"/>
@@ -8605,19 +8614,19 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="F330" s="18">
-        <v>46375</v>
+        <v>49760</v>
       </c>
       <c r="G330" s="18">
-        <v>1159366</v>
+        <v>1244000</v>
       </c>
       <c r="H330" s="19"/>
       <c r="I330" s="19"/>
@@ -8628,19 +8637,19 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="F331" s="18">
-        <v>46375</v>
+        <v>24640</v>
       </c>
       <c r="G331" s="18">
-        <v>1159366</v>
+        <v>616000</v>
       </c>
       <c r="H331" s="19"/>
       <c r="I331" s="19"/>
@@ -8651,19 +8660,19 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="F332" s="18">
-        <v>46375</v>
+        <v>32000</v>
       </c>
       <c r="G332" s="18">
-        <v>1159366</v>
+        <v>800000</v>
       </c>
       <c r="H332" s="19"/>
       <c r="I332" s="19"/>
@@ -8674,19 +8683,19 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="F333" s="18">
-        <v>46375</v>
+        <v>76000</v>
       </c>
       <c r="G333" s="18">
-        <v>1159366</v>
+        <v>2081000</v>
       </c>
       <c r="H333" s="19"/>
       <c r="I333" s="19"/>
@@ -8697,19 +8706,19 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="F334" s="18">
-        <v>34008</v>
+        <v>37613</v>
       </c>
       <c r="G334" s="18">
-        <v>1159366</v>
+        <v>940324</v>
       </c>
       <c r="H334" s="19"/>
       <c r="I334" s="19"/>
@@ -8720,19 +8729,19 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D335" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E335" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E335" s="16" t="s">
-        <v>50</v>
-      </c>
       <c r="F335" s="18">
-        <v>40246</v>
+        <v>49760</v>
       </c>
       <c r="G335" s="18">
-        <v>1006147</v>
+        <v>1244000</v>
       </c>
       <c r="H335" s="19"/>
       <c r="I335" s="19"/>
@@ -8743,19 +8752,19 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D336" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E336" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D336" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E336" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="F336" s="18">
-        <v>28824</v>
+        <v>24640</v>
       </c>
       <c r="G336" s="18">
-        <v>5680000</v>
+        <v>616000</v>
       </c>
       <c r="H336" s="19"/>
       <c r="I336" s="19"/>
@@ -8766,19 +8775,19 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="F337" s="18">
-        <v>16959</v>
+        <v>32000</v>
       </c>
       <c r="G337" s="18">
-        <v>908526</v>
+        <v>800000</v>
       </c>
       <c r="H337" s="19"/>
       <c r="I337" s="19"/>
@@ -8789,19 +8798,19 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F338" s="18">
-        <v>49760</v>
+        <v>76000</v>
       </c>
       <c r="G338" s="18">
-        <v>1244000</v>
+        <v>2081000</v>
       </c>
       <c r="H338" s="19"/>
       <c r="I338" s="19"/>
@@ -8812,19 +8821,19 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="F339" s="18">
-        <v>49760</v>
+        <v>37613</v>
       </c>
       <c r="G339" s="18">
-        <v>1244000</v>
+        <v>940324</v>
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19"/>
@@ -8835,13 +8844,13 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="F340" s="18">
         <v>49760</v>
@@ -8858,19 +8867,19 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="F341" s="18">
-        <v>49760</v>
+        <v>24640</v>
       </c>
       <c r="G341" s="18">
-        <v>1244000</v>
+        <v>616000</v>
       </c>
       <c r="H341" s="19"/>
       <c r="I341" s="19"/>
@@ -8881,19 +8890,19 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="F342" s="18">
-        <v>49760</v>
+        <v>32000</v>
       </c>
       <c r="G342" s="18">
-        <v>1244000</v>
+        <v>800000</v>
       </c>
       <c r="H342" s="19"/>
       <c r="I342" s="19"/>
@@ -8904,19 +8913,19 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="F343" s="18">
-        <v>49760</v>
+        <v>76000</v>
       </c>
       <c r="G343" s="18">
-        <v>1244000</v>
+        <v>2081000</v>
       </c>
       <c r="H343" s="19"/>
       <c r="I343" s="19"/>
@@ -8927,19 +8936,19 @@
         <v>8</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="F344" s="18">
-        <v>49760</v>
+        <v>37613</v>
       </c>
       <c r="G344" s="18">
-        <v>1244000</v>
+        <v>940324</v>
       </c>
       <c r="H344" s="19"/>
       <c r="I344" s="19"/>
@@ -8950,13 +8959,13 @@
         <v>8</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="F345" s="18">
         <v>49760</v>
@@ -8973,19 +8982,19 @@
         <v>8</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="F346" s="18">
-        <v>49760</v>
+        <v>24640</v>
       </c>
       <c r="G346" s="18">
-        <v>1244000</v>
+        <v>616000</v>
       </c>
       <c r="H346" s="19"/>
       <c r="I346" s="19"/>
@@ -8996,19 +9005,19 @@
         <v>8</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="F347" s="18">
-        <v>49760</v>
+        <v>32000</v>
       </c>
       <c r="G347" s="18">
-        <v>1244000</v>
+        <v>800000</v>
       </c>
       <c r="H347" s="19"/>
       <c r="I347" s="19"/>
@@ -9019,19 +9028,19 @@
         <v>8</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="F348" s="18">
-        <v>49760</v>
+        <v>37613</v>
       </c>
       <c r="G348" s="18">
-        <v>1244000</v>
+        <v>940324</v>
       </c>
       <c r="H348" s="19"/>
       <c r="I348" s="19"/>
@@ -9042,13 +9051,13 @@
         <v>8</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D349" s="17" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="E349" s="16" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="F349" s="18">
         <v>49760</v>
@@ -9065,19 +9074,19 @@
         <v>8</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="F350" s="18">
-        <v>49760</v>
+        <v>24640</v>
       </c>
       <c r="G350" s="18">
-        <v>1244000</v>
+        <v>616000</v>
       </c>
       <c r="H350" s="19"/>
       <c r="I350" s="19"/>
@@ -9088,19 +9097,19 @@
         <v>8</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="F351" s="18">
-        <v>49760</v>
+        <v>32000</v>
       </c>
       <c r="G351" s="18">
-        <v>1244000</v>
+        <v>800000</v>
       </c>
       <c r="H351" s="19"/>
       <c r="I351" s="19"/>
@@ -9111,19 +9120,19 @@
         <v>8</v>
       </c>
       <c r="C352" s="16" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="F352" s="18">
-        <v>49760</v>
+        <v>83240</v>
       </c>
       <c r="G352" s="18">
-        <v>1244000</v>
+        <v>2081000</v>
       </c>
       <c r="H352" s="19"/>
       <c r="I352" s="19"/>
@@ -9134,19 +9143,19 @@
         <v>8</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="F353" s="18">
-        <v>49760</v>
+        <v>37613</v>
       </c>
       <c r="G353" s="18">
-        <v>1244000</v>
+        <v>940324</v>
       </c>
       <c r="H353" s="19"/>
       <c r="I353" s="19"/>
@@ -9157,13 +9166,13 @@
         <v>8</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="F354" s="18">
         <v>49760</v>
@@ -9180,19 +9189,19 @@
         <v>8</v>
       </c>
       <c r="C355" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D355" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E355" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D355" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E355" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F355" s="18">
-        <v>49760</v>
+        <v>24640</v>
       </c>
       <c r="G355" s="18">
-        <v>1244000</v>
+        <v>616000</v>
       </c>
       <c r="H355" s="19"/>
       <c r="I355" s="19"/>
@@ -9203,19 +9212,19 @@
         <v>8</v>
       </c>
       <c r="C356" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D356" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E356" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D356" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E356" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F356" s="18">
-        <v>49760</v>
+        <v>32000</v>
       </c>
       <c r="G356" s="18">
-        <v>1244000</v>
+        <v>800000</v>
       </c>
       <c r="H356" s="19"/>
       <c r="I356" s="19"/>
@@ -9226,19 +9235,19 @@
         <v>8</v>
       </c>
       <c r="C357" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D357" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E357" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D357" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E357" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="F357" s="18">
-        <v>49760</v>
+        <v>83240</v>
       </c>
       <c r="G357" s="18">
-        <v>1244000</v>
+        <v>2081000</v>
       </c>
       <c r="H357" s="19"/>
       <c r="I357" s="19"/>
@@ -9249,19 +9258,19 @@
         <v>8</v>
       </c>
       <c r="C358" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D358" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E358" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D358" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E358" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F358" s="18">
-        <v>49760</v>
+        <v>37613</v>
       </c>
       <c r="G358" s="18">
-        <v>1244000</v>
+        <v>940324</v>
       </c>
       <c r="H358" s="19"/>
       <c r="I358" s="19"/>
@@ -9272,13 +9281,13 @@
         <v>8</v>
       </c>
       <c r="C359" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D359" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E359" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="D359" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E359" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F359" s="18">
         <v>49760</v>
@@ -9295,19 +9304,19 @@
         <v>8</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="D360" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E360" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E360" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="F360" s="18">
-        <v>49760</v>
+        <v>24640</v>
       </c>
       <c r="G360" s="18">
-        <v>1244000</v>
+        <v>616000</v>
       </c>
       <c r="H360" s="19"/>
       <c r="I360" s="19"/>
@@ -9318,19 +9327,19 @@
         <v>8</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D361" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E361" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E361" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="F361" s="18">
-        <v>49760</v>
+        <v>32000</v>
       </c>
       <c r="G361" s="18">
-        <v>1244000</v>
+        <v>800000</v>
       </c>
       <c r="H361" s="19"/>
       <c r="I361" s="19"/>
@@ -9341,19 +9350,19 @@
         <v>8</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="D362" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E362" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E362" s="16" t="s">
-        <v>35</v>
-      </c>
       <c r="F362" s="18">
-        <v>49760</v>
+        <v>83240</v>
       </c>
       <c r="G362" s="18">
-        <v>1244000</v>
+        <v>2081000</v>
       </c>
       <c r="H362" s="19"/>
       <c r="I362" s="19"/>
@@ -9364,19 +9373,19 @@
         <v>8</v>
       </c>
       <c r="C363" s="16" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="D363" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E363" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E363" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="F363" s="18">
-        <v>49760</v>
+        <v>37613</v>
       </c>
       <c r="G363" s="18">
-        <v>1244000</v>
+        <v>940324</v>
       </c>
       <c r="H363" s="19"/>
       <c r="I363" s="19"/>
@@ -9387,13 +9396,13 @@
         <v>8</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D364" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E364" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="E364" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F364" s="18">
         <v>49760</v>
@@ -9406,56 +9415,171 @@
       <c r="J364" s="20"/>
     </row>
     <row r="365" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B365" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C365" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D365" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="E365" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F365" s="24">
+      <c r="B365" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C365" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D365" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E365" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F365" s="18">
+        <v>24640</v>
+      </c>
+      <c r="G365" s="18">
+        <v>616000</v>
+      </c>
+      <c r="H365" s="19"/>
+      <c r="I365" s="19"/>
+      <c r="J365" s="20"/>
+    </row>
+    <row r="366" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B366" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C366" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D366" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E366" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F366" s="18">
+        <v>32000</v>
+      </c>
+      <c r="G366" s="18">
+        <v>800000</v>
+      </c>
+      <c r="H366" s="19"/>
+      <c r="I366" s="19"/>
+      <c r="J366" s="20"/>
+    </row>
+    <row r="367" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B367" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C367" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D367" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E367" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F367" s="18">
+        <v>83240</v>
+      </c>
+      <c r="G367" s="18">
+        <v>2081000</v>
+      </c>
+      <c r="H367" s="19"/>
+      <c r="I367" s="19"/>
+      <c r="J367" s="20"/>
+    </row>
+    <row r="368" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B368" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C368" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D368" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E368" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F368" s="18">
+        <v>37613</v>
+      </c>
+      <c r="G368" s="18">
+        <v>940324</v>
+      </c>
+      <c r="H368" s="19"/>
+      <c r="I368" s="19"/>
+      <c r="J368" s="20"/>
+    </row>
+    <row r="369" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B369" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C369" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D369" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E369" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F369" s="18">
         <v>49760</v>
       </c>
-      <c r="G365" s="24">
+      <c r="G369" s="18">
         <v>1244000</v>
       </c>
-      <c r="H365" s="25"/>
-      <c r="I365" s="25"/>
-      <c r="J365" s="26"/>
+      <c r="H369" s="19"/>
+      <c r="I369" s="19"/>
+      <c r="J369" s="20"/>
     </row>
     <row r="370" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B370" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="C370" s="32"/>
-      <c r="H370" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I370" s="1"/>
-      <c r="J370" s="1"/>
-    </row>
-    <row r="371" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B371" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="C371" s="32"/>
-      <c r="H371" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I371" s="1"/>
-      <c r="J371" s="1"/>
+      <c r="B370" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C370" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D370" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E370" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F370" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G370" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H370" s="25"/>
+      <c r="I370" s="25"/>
+      <c r="J370" s="26"/>
+    </row>
+    <row r="375" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B375" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C375" s="32"/>
+      <c r="H375" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I375" s="1"/>
+      <c r="J375" s="1"/>
+    </row>
+    <row r="376" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B376" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C376" s="32"/>
+      <c r="H376" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I376" s="1"/>
+      <c r="J376" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B371:C371"/>
-    <mergeCell ref="B370:C370"/>
-    <mergeCell ref="H371:J371"/>
-    <mergeCell ref="H370:J370"/>
+    <mergeCell ref="B376:C376"/>
+    <mergeCell ref="B375:C375"/>
+    <mergeCell ref="H376:J376"/>
+    <mergeCell ref="H375:J375"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
